--- a/Cantarrana_Quincenal.xlsx
+++ b/Cantarrana_Quincenal.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.428</v>
+        <v>20.058</v>
       </c>
       <c r="C2">
-        <v>0.077</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.965</v>
+        <v>19.223</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.501</v>
+        <v>18.389</v>
       </c>
       <c r="C4">
-        <v>0.175</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.038</v>
+        <v>17.554</v>
       </c>
       <c r="C5">
-        <v>0.219</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.574</v>
+        <v>16.72</v>
       </c>
       <c r="C6">
-        <v>0.263</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.11</v>
+        <v>15.885</v>
       </c>
       <c r="C7">
-        <v>0.285</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.647</v>
+        <v>15.051</v>
       </c>
       <c r="C8">
-        <v>0.339</v>
+        <v>1.182</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.183</v>
+        <v>14.216</v>
       </c>
       <c r="C9">
-        <v>0.46</v>
+        <v>1.663</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.72</v>
+        <v>13.382</v>
       </c>
       <c r="C10">
-        <v>0.613</v>
+        <v>2.211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.256</v>
+        <v>12.547</v>
       </c>
       <c r="C11">
-        <v>0.788</v>
+        <v>2.856</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.793</v>
+        <v>11.713</v>
       </c>
       <c r="C12">
-        <v>0.963</v>
+        <v>3.403</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.329</v>
+        <v>10.879</v>
       </c>
       <c r="C13">
-        <v>1.116</v>
+        <v>4.104</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.865</v>
+        <v>10.044</v>
       </c>
       <c r="C14">
-        <v>1.302</v>
+        <v>5.198</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.402</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C15">
-        <v>1.532</v>
+        <v>6.708</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.938</v>
+        <v>8.375</v>
       </c>
       <c r="C16">
-        <v>1.882</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.475</v>
+        <v>7.541</v>
       </c>
       <c r="C17">
-        <v>2.134</v>
+        <v>10.823</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.011</v>
+        <v>6.706</v>
       </c>
       <c r="C18">
-        <v>2.594</v>
+        <v>13.603</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.547</v>
+        <v>5.872</v>
       </c>
       <c r="C19">
-        <v>2.856</v>
+        <v>16.776</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.084</v>
+        <v>5.037</v>
       </c>
       <c r="C20">
-        <v>3.075</v>
+        <v>20.935</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.62</v>
+        <v>4.203</v>
       </c>
       <c r="C21">
-        <v>3.48</v>
+        <v>26.472</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.157</v>
+        <v>3.368</v>
       </c>
       <c r="C22">
-        <v>3.918</v>
+        <v>34.012</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.693</v>
+        <v>2.534</v>
       </c>
       <c r="C23">
-        <v>4.323</v>
+        <v>41.048</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.23</v>
+        <v>1.7</v>
       </c>
       <c r="C24">
-        <v>4.935</v>
+        <v>49.332</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.766</v>
+        <v>0.865</v>
       </c>
       <c r="C25">
-        <v>5.57</v>
+        <v>60.199</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,230 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.302</v>
+        <v>0.031</v>
       </c>
       <c r="C26">
-        <v>6.533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>8.839</v>
-      </c>
-      <c r="C27">
-        <v>7.518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>8.375</v>
-      </c>
-      <c r="C28">
-        <v>8.678000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>7.912</v>
-      </c>
-      <c r="C29">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>7.448</v>
-      </c>
-      <c r="C30">
-        <v>11.195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>6.984</v>
-      </c>
-      <c r="C31">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>6.521</v>
-      </c>
-      <c r="C32">
-        <v>14.117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>6.057</v>
-      </c>
-      <c r="C33">
-        <v>16.021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>5.594</v>
-      </c>
-      <c r="C34">
-        <v>18.166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5.13</v>
-      </c>
-      <c r="C35">
-        <v>20.541</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>4.667</v>
-      </c>
-      <c r="C36">
-        <v>23.134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>4.203</v>
-      </c>
-      <c r="C37">
-        <v>26.472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>3.739</v>
-      </c>
-      <c r="C38">
-        <v>30.269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>3.276</v>
-      </c>
-      <c r="C39">
-        <v>34.931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>2.812</v>
-      </c>
-      <c r="C40">
-        <v>38.663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>2.349</v>
-      </c>
-      <c r="C41">
-        <v>42.734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>1.885</v>
-      </c>
-      <c r="C42">
-        <v>47.494</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>1.421</v>
-      </c>
-      <c r="C43">
-        <v>52.079</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>0.958</v>
-      </c>
-      <c r="C44">
-        <v>58.361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>0.494</v>
-      </c>
-      <c r="C45">
-        <v>67.575</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>0.031</v>
-      </c>
-      <c r="C46">
-        <v>99.989</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
